--- a/media/file_form_template/工作派任計畫樣板.xlsx
+++ b/media/file_form_template/工作派任計畫樣板.xlsx
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>工派單編號</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>出勤日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,11 +43,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作類型</t>
+    <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
+    <t>工程確認單編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,34 +412,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/media/file_form_template/工作派任計畫樣板.xlsx
+++ b/media/file_form_template/工作派任計畫樣板.xlsx
@@ -35,10 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>出勤日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作地點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,6 +44,10 @@
   </si>
   <si>
     <t>工程確認單編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出勤日期（格式：yyyy/mm/dd）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,28 +415,29 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
